--- a/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
+++ b/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,666 @@
         <v>844000000</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1710000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2110000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7420000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3140000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1750000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>echo</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>403000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10300000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1400000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pursue</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>179000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2760000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>577000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>117000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mridangam</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>839000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>aunties</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>54300000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>progress</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1030000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1490000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>690000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3190000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>aunties</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>excite</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>96600000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8390000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>clarity</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>213000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3320000000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3490000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>464000000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>clarity</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>213000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8390000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>13880000000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>424000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>echo</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>404000000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ideologies</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>21400000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>instrument</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>777000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7980000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>play</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10340000000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>124000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>cheer</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>208000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>rock</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2650000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>pure</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8530000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7980000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3380000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>essayfit</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pasta</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>802000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>pasta</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>802000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>pasta</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>802000000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>398000000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10970000000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4180000000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>770000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
+++ b/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,7 +1161,127 @@
         <v>770000000</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>386000000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4050000000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>register</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2850000000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2880000000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>375000000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mridangam</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1110000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>clarity</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>210000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>575000000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>332000000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>4780000000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>cheer</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>196000000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5590000000</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
+++ b/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,37 +1168,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>386000000</v>
+        <v>411000000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>aunties</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4050000000</v>
+        <v>54400000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>cheer</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2850000000</v>
+        <v>186000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2880000000</v>
+        <v>767000000</v>
       </c>
     </row>
     <row r="79">
@@ -1208,37 +1208,37 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>375000000</v>
+        <v>411000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mridangam</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1110000</v>
+        <v>767000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>clarity</t>
+          <t>question</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>210000000</v>
+        <v>2510000000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>shoot</t>
+          <t>ideologies</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>575000000</v>
+        <v>21700000</v>
       </c>
     </row>
     <row r="83">
@@ -1248,40 +1248,90 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>332000000</v>
+        <v>404000000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>shoot</t>
+          <t>excite</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4780000000</v>
+        <v>103000000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cheer</t>
+          <t>birthday</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>196000000</v>
+        <v>1810000000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>different</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5590000000</v>
+        <v>4580000000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>388000000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>excite</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>103000000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>clarity</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>205000000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>wish</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2590000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>388000000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
+++ b/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1331,7 +1331,1217 @@
         <v>388000000</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1520000000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3680000000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>567000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>116000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5980000000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4040000000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>495000000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2450000000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2680000000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>echo</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>395000000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>295000000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>495000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1380000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3880000000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>116000000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1560000000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2780000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>629000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1610000000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>8690000000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>play</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>10110000000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>356000000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>erupt</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>15100000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3120000000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1940000000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1520000000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>soon</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>197000000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>echo</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>323000000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1380000000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8990000000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>683000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1190000000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2890000000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>15060000000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>9540000000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1550000000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>limit</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1280000000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2020000000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>224000000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1430000000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4470000000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4800000000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>313000000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2820000000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>cheer</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>185000000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>limit</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1160000000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3140000000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>7360000000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4980000000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>13200000000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>afraid</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>303000000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>perfect</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3870000000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2020000000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>313000000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>660000000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>954000000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>13070000000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1320000000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>7620000000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>129000000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3720000000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4940000000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>9210000000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2600000000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>356000000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>243000000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>perfect</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3990000000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1670000000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1820000000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>wish</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2390000000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>halls</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>126000000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>5120000000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>7540000000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>4310000000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>technology</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>5800000000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>365000000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3070000000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>9190000000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1530000000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>15030000000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>729000000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1180000000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>241000000</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1690000000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4340000000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>496000000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>370000000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>perfect</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>4080000000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>461000000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1880000000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2310000000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>241000000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>mridangam</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>868000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>play</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>7810000000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>echo</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3310000000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1150000000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>494000000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>361000000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>4340000000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>4860000000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>4520000000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1470000000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2510000000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>wish</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2580000000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>461000000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1380000000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>8260000000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>10160000000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>361000000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>longer</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1380000000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>4180000000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>usually</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1730000000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>9050000000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3400000000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>774000000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2170000000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2960000000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>limit</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>978000000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2900000000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>375000000</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
+++ b/Accu-Critique/CollegeSuppEssay/data/topic_search_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2541,6 +2541,226 @@
         <v>375000000</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>3210000000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>perfect</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>4650000000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>play</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>9160000000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>339000000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1620000000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>3930000000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>3220000000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>mridangam</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2450000000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>shoot</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>649000000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>396000000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>3900000000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2520000000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2030000000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>tell</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2100000000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>4220000000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>perfect</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>4940000000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>cultural</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1060000000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2870000000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>mridangam</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>989000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>aspect</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>446000000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>tesla</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>333000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
